--- a/individual_results/avey/151.xlsx
+++ b/individual_results/avey/151.xlsx
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2" t="n">
         <v>0.4</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="C4" t="n">
         <v>0.4444444444444445</v>
@@ -609,7 +609,7 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="C5" t="n">
         <v>0.4761904761904762</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7913356909966908</v>
+        <v>0.7026687648649679</v>
       </c>
       <c r="C6" t="n">
         <v>0.5838683836316082</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9798251356588182</v>
+        <v>0.7913356909966908</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>0.5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
